--- a/document/excel_upload_자료/TBL_EXP_ROLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_ROLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A70068-BAFB-4A7C-8157-3A22941CDC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE29D8D-11D2-4308-AE03-4D3A8E18D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="7365" yWindow="4845" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -350,14 +350,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +696,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -705,13 +705,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="24">
@@ -791,19 +791,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1">
@@ -811,39 +811,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1">
